--- a/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(Finished)/Final/100nodes/100.xlsx
+++ b/Doc/PHD_Papers/Thesis_Paper/Single-hop_Wireless_Network/修改/测试数据/Sybil_test(Finished)/Final/100nodes/100.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Sybil_test(SWIB)\Final\100nodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhang\Desktop\Github Study\Blockchain\Doc\PHD_Papers\Thesis_Paper\Single-hop_Wireless_Network\修改\测试数据\Sybil_test(Finished)\Final\100nodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8C449E-6021-4BC7-B649-91F0A0346F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5368D4E9-FB17-484E-84EF-017C388044B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" r:id="rId1"/>
     <sheet name="data" sheetId="2" r:id="rId2"/>
     <sheet name="综合图" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1552,13 +1552,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W111"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="G43" workbookViewId="0">
       <selection activeCell="W44" sqref="W44:W53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -1584,12 +1584,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
@@ -1607,7 +1607,7 @@
         <v>4</v>
       </c>
       <c r="H2">
-        <v>1740</v>
+        <v>1772</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1619,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>17</v>
@@ -1637,7 +1637,7 @@
         <v>6</v>
       </c>
       <c r="R2">
-        <v>6019</v>
+        <v>6088</v>
       </c>
       <c r="S2" t="s">
         <v>7</v>
@@ -1647,15 +1647,15 @@
       </c>
       <c r="U2">
         <f>R2-H2</f>
-        <v>4279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
@@ -1673,7 +1673,7 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>7771</v>
+        <v>7829</v>
       </c>
       <c r="I3" t="s">
         <v>5</v>
@@ -1685,7 +1685,7 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
         <v>17</v>
@@ -1703,7 +1703,7 @@
         <v>6</v>
       </c>
       <c r="R3">
-        <v>12077</v>
+        <v>12154</v>
       </c>
       <c r="S3" t="s">
         <v>7</v>
@@ -1713,15 +1713,15 @@
       </c>
       <c r="U3">
         <f t="shared" ref="U3:U66" si="0">R3-H3</f>
-        <v>4306</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -1739,7 +1739,7 @@
         <v>4</v>
       </c>
       <c r="H4">
-        <v>13828</v>
+        <v>13903</v>
       </c>
       <c r="I4" t="s">
         <v>5</v>
@@ -1751,7 +1751,7 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
         <v>17</v>
@@ -1769,7 +1769,7 @@
         <v>6</v>
       </c>
       <c r="R4">
-        <v>18118</v>
+        <v>18209</v>
       </c>
       <c r="S4" t="s">
         <v>7</v>
@@ -1779,15 +1779,15 @@
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>4290</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -1805,7 +1805,7 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>19873</v>
+        <v>19969</v>
       </c>
       <c r="I5" t="s">
         <v>5</v>
@@ -1817,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M5" t="s">
         <v>17</v>
@@ -1835,7 +1835,7 @@
         <v>6</v>
       </c>
       <c r="R5">
-        <v>24310</v>
+        <v>24265</v>
       </c>
       <c r="S5" t="s">
         <v>7</v>
@@ -1845,15 +1845,15 @@
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>4437</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
@@ -1871,7 +1871,7 @@
         <v>4</v>
       </c>
       <c r="H6">
-        <v>26071</v>
+        <v>26007</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
@@ -1883,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
         <v>17</v>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
       <c r="R6">
-        <v>30363</v>
+        <v>30299</v>
       </c>
       <c r="S6" t="s">
         <v>7</v>
@@ -1914,12 +1914,12 @@
         <v>4292</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
@@ -1937,7 +1937,7 @@
         <v>4</v>
       </c>
       <c r="H7">
-        <v>32111</v>
+        <v>32053</v>
       </c>
       <c r="I7" t="s">
         <v>5</v>
@@ -1949,7 +1949,7 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="M7" t="s">
         <v>17</v>
@@ -1967,7 +1967,7 @@
         <v>6</v>
       </c>
       <c r="R7">
-        <v>36400</v>
+        <v>36328</v>
       </c>
       <c r="S7" t="s">
         <v>7</v>
@@ -1977,15 +1977,15 @@
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="H8">
-        <v>38145</v>
+        <v>38096</v>
       </c>
       <c r="I8" t="s">
         <v>5</v>
@@ -2015,7 +2015,7 @@
         <v>2</v>
       </c>
       <c r="L8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M8" t="s">
         <v>17</v>
@@ -2033,7 +2033,7 @@
         <v>6</v>
       </c>
       <c r="R8">
-        <v>42430</v>
+        <v>42383</v>
       </c>
       <c r="S8" t="s">
         <v>7</v>
@@ -2043,15 +2043,15 @@
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>4285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -2069,7 +2069,7 @@
         <v>4</v>
       </c>
       <c r="H9">
-        <v>44164</v>
+        <v>44139</v>
       </c>
       <c r="I9" t="s">
         <v>5</v>
@@ -2081,7 +2081,7 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="M9" t="s">
         <v>17</v>
@@ -2099,7 +2099,7 @@
         <v>6</v>
       </c>
       <c r="R9">
-        <v>48460</v>
+        <v>48414</v>
       </c>
       <c r="S9" t="s">
         <v>7</v>
@@ -2109,15 +2109,15 @@
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>4296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>2</v>
       </c>
       <c r="B10">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -2135,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="H10">
-        <v>50195</v>
+        <v>50135</v>
       </c>
       <c r="I10" t="s">
         <v>5</v>
@@ -2147,7 +2147,7 @@
         <v>2</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="M10" t="s">
         <v>17</v>
@@ -2165,7 +2165,7 @@
         <v>6</v>
       </c>
       <c r="R10">
-        <v>54504</v>
+        <v>54420</v>
       </c>
       <c r="S10" t="s">
         <v>7</v>
@@ -2175,15 +2175,15 @@
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>4309</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -2201,7 +2201,7 @@
         <v>4</v>
       </c>
       <c r="H11">
-        <v>56269</v>
+        <v>56181</v>
       </c>
       <c r="I11" t="s">
         <v>5</v>
@@ -2213,7 +2213,7 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="M11" t="s">
         <v>17</v>
@@ -2231,7 +2231,7 @@
         <v>6</v>
       </c>
       <c r="R11">
-        <v>60576</v>
+        <v>60478</v>
       </c>
       <c r="S11" t="s">
         <v>7</v>
@@ -2241,10 +2241,10 @@
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>4307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2276,15 +2276,15 @@
       </c>
       <c r="U12" s="2">
         <f>AVERAGE(U2:U11)</f>
-        <v>4309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4295.3999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -2302,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="H13">
-        <v>1748</v>
+        <v>1713</v>
       </c>
       <c r="I13" t="s">
         <v>5</v>
@@ -2314,7 +2314,7 @@
         <v>2</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M13" t="s">
         <v>17</v>
@@ -2332,7 +2332,7 @@
         <v>6</v>
       </c>
       <c r="R13">
-        <v>6083</v>
+        <v>6009</v>
       </c>
       <c r="S13" t="s">
         <v>7</v>
@@ -2342,21 +2342,21 @@
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>4335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>3</v>
@@ -2368,25 +2368,25 @@
         <v>4</v>
       </c>
       <c r="H14">
-        <v>7840</v>
+        <v>6010</v>
       </c>
       <c r="I14" t="s">
         <v>5</v>
       </c>
       <c r="J14">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
         <v>2</v>
       </c>
       <c r="L14">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="M14" t="s">
         <v>17</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="s">
         <v>3</v>
@@ -2398,25 +2398,25 @@
         <v>6</v>
       </c>
       <c r="R14">
-        <v>12140</v>
+        <v>10305</v>
       </c>
       <c r="S14" t="s">
         <v>7</v>
       </c>
       <c r="T14">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>4300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -2434,7 +2434,7 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>13904</v>
+        <v>12043</v>
       </c>
       <c r="I15" t="s">
         <v>5</v>
@@ -2446,7 +2446,7 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M15" t="s">
         <v>17</v>
@@ -2464,7 +2464,7 @@
         <v>6</v>
       </c>
       <c r="R15">
-        <v>18226</v>
+        <v>16320</v>
       </c>
       <c r="S15" t="s">
         <v>7</v>
@@ -2474,15 +2474,15 @@
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>4322</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>
       <c r="B16">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -2500,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="H16">
-        <v>19980</v>
+        <v>18073</v>
       </c>
       <c r="I16" t="s">
         <v>5</v>
@@ -2512,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="L16">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M16" t="s">
         <v>17</v>
@@ -2530,7 +2530,7 @@
         <v>6</v>
       </c>
       <c r="R16">
-        <v>24301</v>
+        <v>22376</v>
       </c>
       <c r="S16" t="s">
         <v>7</v>
@@ -2540,15 +2540,15 @@
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4303</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>2</v>
       </c>
       <c r="B17">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -2566,7 +2566,7 @@
         <v>4</v>
       </c>
       <c r="H17">
-        <v>26044</v>
+        <v>24114</v>
       </c>
       <c r="I17" t="s">
         <v>5</v>
@@ -2578,7 +2578,7 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M17" t="s">
         <v>17</v>
@@ -2596,7 +2596,7 @@
         <v>6</v>
       </c>
       <c r="R17">
-        <v>30465</v>
+        <v>28629</v>
       </c>
       <c r="S17" t="s">
         <v>7</v>
@@ -2606,15 +2606,15 @@
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>4421</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>2</v>
       </c>
       <c r="B18">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
@@ -2632,7 +2632,7 @@
         <v>4</v>
       </c>
       <c r="H18">
-        <v>32223</v>
+        <v>30351</v>
       </c>
       <c r="I18" t="s">
         <v>5</v>
@@ -2644,7 +2644,7 @@
         <v>2</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M18" t="s">
         <v>17</v>
@@ -2662,7 +2662,7 @@
         <v>6</v>
       </c>
       <c r="R18">
-        <v>36528</v>
+        <v>34693</v>
       </c>
       <c r="S18" t="s">
         <v>7</v>
@@ -2672,15 +2672,15 @@
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>4305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>2</v>
       </c>
       <c r="B19">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
@@ -2698,7 +2698,7 @@
         <v>4</v>
       </c>
       <c r="H19">
-        <v>38279</v>
+        <v>36430</v>
       </c>
       <c r="I19" t="s">
         <v>5</v>
@@ -2710,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="M19" t="s">
         <v>17</v>
@@ -2728,7 +2728,7 @@
         <v>6</v>
       </c>
       <c r="R19">
-        <v>42571</v>
+        <v>40727</v>
       </c>
       <c r="S19" t="s">
         <v>7</v>
@@ -2738,15 +2738,15 @@
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>4292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4297</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>2</v>
       </c>
       <c r="B20">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -2764,7 +2764,7 @@
         <v>4</v>
       </c>
       <c r="H20">
-        <v>44297</v>
+        <v>42464</v>
       </c>
       <c r="I20" t="s">
         <v>5</v>
@@ -2776,7 +2776,7 @@
         <v>2</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="M20" t="s">
         <v>17</v>
@@ -2794,7 +2794,7 @@
         <v>6</v>
       </c>
       <c r="R20">
-        <v>48652</v>
+        <v>46747</v>
       </c>
       <c r="S20" t="s">
         <v>7</v>
@@ -2804,15 +2804,15 @@
       </c>
       <c r="U20">
         <f t="shared" si="0"/>
-        <v>4355</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -2830,7 +2830,7 @@
         <v>4</v>
       </c>
       <c r="H21">
-        <v>50388</v>
+        <v>48478</v>
       </c>
       <c r="I21" t="s">
         <v>5</v>
@@ -2842,7 +2842,7 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="M21" t="s">
         <v>17</v>
@@ -2860,7 +2860,7 @@
         <v>6</v>
       </c>
       <c r="R21">
-        <v>54687</v>
+        <v>52816</v>
       </c>
       <c r="S21" t="s">
         <v>7</v>
@@ -2870,15 +2870,15 @@
       </c>
       <c r="U21">
         <f t="shared" si="0"/>
-        <v>4299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
       <c r="B22">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -2896,7 +2896,7 @@
         <v>4</v>
       </c>
       <c r="H22">
-        <v>56430</v>
+        <v>54544</v>
       </c>
       <c r="I22" t="s">
         <v>5</v>
@@ -2908,7 +2908,7 @@
         <v>2</v>
       </c>
       <c r="L22">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="M22" t="s">
         <v>17</v>
@@ -2926,7 +2926,7 @@
         <v>6</v>
       </c>
       <c r="R22">
-        <v>60753</v>
+        <v>58850</v>
       </c>
       <c r="S22" t="s">
         <v>7</v>
@@ -2936,10 +2936,10 @@
       </c>
       <c r="U22">
         <f t="shared" si="0"/>
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -2967,19 +2967,19 @@
       <c r="R23" s="2"/>
       <c r="T23">
         <f>AVERAGE(T13:T22)</f>
-        <v>2047</v>
+        <v>1842.3</v>
       </c>
       <c r="U23" s="2">
         <f>AVERAGE(U13:U22)</f>
-        <v>4327.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4325.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>2</v>
       </c>
       <c r="B24">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -2997,7 +2997,7 @@
         <v>4</v>
       </c>
       <c r="H24">
-        <v>1737</v>
+        <v>1742</v>
       </c>
       <c r="I24" t="s">
         <v>5</v>
@@ -3009,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="L24">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="M24" t="s">
         <v>17</v>
@@ -3027,7 +3027,7 @@
         <v>6</v>
       </c>
       <c r="R24">
-        <v>6036</v>
+        <v>6044</v>
       </c>
       <c r="S24" t="s">
         <v>7</v>
@@ -3037,15 +3037,15 @@
       </c>
       <c r="U24">
         <f t="shared" si="0"/>
-        <v>4299</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -3063,7 +3063,7 @@
         <v>4</v>
       </c>
       <c r="H25">
-        <v>7789</v>
+        <v>7776</v>
       </c>
       <c r="I25" t="s">
         <v>5</v>
@@ -3075,7 +3075,7 @@
         <v>2</v>
       </c>
       <c r="L25">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="M25" t="s">
         <v>17</v>
@@ -3093,7 +3093,7 @@
         <v>6</v>
       </c>
       <c r="R25">
-        <v>12113</v>
+        <v>12058</v>
       </c>
       <c r="S25" t="s">
         <v>7</v>
@@ -3103,15 +3103,15 @@
       </c>
       <c r="U25">
         <f t="shared" si="0"/>
-        <v>4324</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>2</v>
       </c>
       <c r="B26">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -3129,7 +3129,7 @@
         <v>4</v>
       </c>
       <c r="H26">
-        <v>13850</v>
+        <v>13796</v>
       </c>
       <c r="I26" t="s">
         <v>5</v>
@@ -3141,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="L26">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="M26" t="s">
         <v>17</v>
@@ -3159,7 +3159,7 @@
         <v>6</v>
       </c>
       <c r="R26">
-        <v>18160</v>
+        <v>18108</v>
       </c>
       <c r="S26" t="s">
         <v>7</v>
@@ -3169,15 +3169,15 @@
       </c>
       <c r="U26">
         <f t="shared" si="0"/>
-        <v>4310</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -3195,7 +3195,7 @@
         <v>4</v>
       </c>
       <c r="H27">
-        <v>19904</v>
+        <v>19846</v>
       </c>
       <c r="I27" t="s">
         <v>5</v>
@@ -3207,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="M27" t="s">
         <v>17</v>
@@ -3225,7 +3225,7 @@
         <v>6</v>
       </c>
       <c r="R27">
-        <v>24250</v>
+        <v>24141</v>
       </c>
       <c r="S27" t="s">
         <v>7</v>
@@ -3235,15 +3235,15 @@
       </c>
       <c r="U27">
         <f t="shared" si="0"/>
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4295</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>2</v>
       </c>
       <c r="B28">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -3261,7 +3261,7 @@
         <v>4</v>
       </c>
       <c r="H28">
-        <v>25990</v>
+        <v>25897</v>
       </c>
       <c r="I28" t="s">
         <v>5</v>
@@ -3273,7 +3273,7 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="M28" t="s">
         <v>17</v>
@@ -3291,7 +3291,7 @@
         <v>6</v>
       </c>
       <c r="R28">
-        <v>30303</v>
+        <v>30213</v>
       </c>
       <c r="S28" t="s">
         <v>7</v>
@@ -3301,21 +3301,21 @@
       </c>
       <c r="U28">
         <f t="shared" si="0"/>
-        <v>4313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>2</v>
       </c>
       <c r="B29">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="s">
         <v>3</v>
@@ -3327,25 +3327,25 @@
         <v>4</v>
       </c>
       <c r="H29">
-        <v>32022</v>
+        <v>30214</v>
       </c>
       <c r="I29" t="s">
         <v>5</v>
       </c>
       <c r="J29">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K29" t="s">
         <v>2</v>
       </c>
       <c r="L29">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="M29" t="s">
         <v>17</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="s">
         <v>3</v>
@@ -3357,25 +3357,25 @@
         <v>6</v>
       </c>
       <c r="R29">
-        <v>36384</v>
+        <v>34507</v>
       </c>
       <c r="S29" t="s">
         <v>7</v>
       </c>
       <c r="T29">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U29">
         <f t="shared" si="0"/>
-        <v>4362</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -3393,7 +3393,7 @@
         <v>4</v>
       </c>
       <c r="H30">
-        <v>38141</v>
+        <v>36236</v>
       </c>
       <c r="I30" t="s">
         <v>5</v>
@@ -3405,7 +3405,7 @@
         <v>2</v>
       </c>
       <c r="L30">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="M30" t="s">
         <v>17</v>
@@ -3423,7 +3423,7 @@
         <v>6</v>
       </c>
       <c r="R30">
-        <v>42444</v>
+        <v>40550</v>
       </c>
       <c r="S30" t="s">
         <v>7</v>
@@ -3433,15 +3433,15 @@
       </c>
       <c r="U30">
         <f t="shared" si="0"/>
-        <v>4303</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4314</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>2</v>
       </c>
       <c r="B31">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -3459,7 +3459,7 @@
         <v>4</v>
       </c>
       <c r="H31">
-        <v>44182</v>
+        <v>42294</v>
       </c>
       <c r="I31" t="s">
         <v>5</v>
@@ -3471,7 +3471,7 @@
         <v>2</v>
       </c>
       <c r="L31">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="M31" t="s">
         <v>17</v>
@@ -3489,7 +3489,7 @@
         <v>6</v>
       </c>
       <c r="R31">
-        <v>48489</v>
+        <v>46579</v>
       </c>
       <c r="S31" t="s">
         <v>7</v>
@@ -3499,15 +3499,15 @@
       </c>
       <c r="U31">
         <f t="shared" si="0"/>
-        <v>4307</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4285</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>2</v>
       </c>
       <c r="B32">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -3525,7 +3525,7 @@
         <v>4</v>
       </c>
       <c r="H32">
-        <v>50237</v>
+        <v>48304</v>
       </c>
       <c r="I32" t="s">
         <v>5</v>
@@ -3537,7 +3537,7 @@
         <v>2</v>
       </c>
       <c r="L32">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M32" t="s">
         <v>17</v>
@@ -3555,7 +3555,7 @@
         <v>6</v>
       </c>
       <c r="R32">
-        <v>54560</v>
+        <v>52670</v>
       </c>
       <c r="S32" t="s">
         <v>7</v>
@@ -3565,15 +3565,15 @@
       </c>
       <c r="U32">
         <f t="shared" si="0"/>
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4366</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -3591,7 +3591,7 @@
         <v>4</v>
       </c>
       <c r="H33">
-        <v>56307</v>
+        <v>54423</v>
       </c>
       <c r="I33" t="s">
         <v>5</v>
@@ -3603,7 +3603,7 @@
         <v>2</v>
       </c>
       <c r="L33">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="M33" t="s">
         <v>17</v>
@@ -3621,7 +3621,7 @@
         <v>6</v>
       </c>
       <c r="R33">
-        <v>60628</v>
+        <v>58746</v>
       </c>
       <c r="S33" t="s">
         <v>7</v>
@@ -3631,10 +3631,10 @@
       </c>
       <c r="U33">
         <f t="shared" si="0"/>
-        <v>4321</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -3662,19 +3662,19 @@
       <c r="R34" s="2"/>
       <c r="T34">
         <f>AVERAGE(T24:T33)</f>
-        <v>2047</v>
+        <v>1842.3</v>
       </c>
       <c r="U34" s="2">
         <f>AVERAGE(U24:U33)</f>
-        <v>4320.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4308.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>2</v>
       </c>
       <c r="B35">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C35" t="s">
         <v>17</v>
@@ -3692,7 +3692,7 @@
         <v>4</v>
       </c>
       <c r="H35">
-        <v>1713</v>
+        <v>1752</v>
       </c>
       <c r="I35" t="s">
         <v>5</v>
@@ -3704,7 +3704,7 @@
         <v>2</v>
       </c>
       <c r="L35">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="M35" t="s">
         <v>17</v>
@@ -3722,7 +3722,7 @@
         <v>6</v>
       </c>
       <c r="R35">
-        <v>6008</v>
+        <v>6036</v>
       </c>
       <c r="S35" t="s">
         <v>7</v>
@@ -3732,21 +3732,21 @@
       </c>
       <c r="U35">
         <f t="shared" si="0"/>
-        <v>4295</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>2</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="s">
         <v>3</v>
@@ -3758,25 +3758,25 @@
         <v>4</v>
       </c>
       <c r="H36">
-        <v>7743</v>
+        <v>6037</v>
       </c>
       <c r="I36" t="s">
         <v>5</v>
       </c>
       <c r="J36">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K36" t="s">
         <v>2</v>
       </c>
       <c r="L36">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="M36" t="s">
         <v>17</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="s">
         <v>3</v>
@@ -3788,31 +3788,31 @@
         <v>6</v>
       </c>
       <c r="R36">
-        <v>12092</v>
+        <v>10355</v>
       </c>
       <c r="S36" t="s">
         <v>7</v>
       </c>
       <c r="T36">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U36">
         <f t="shared" si="0"/>
-        <v>4349</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4318</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>2</v>
       </c>
       <c r="B37">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
         <v>3</v>
@@ -3824,25 +3824,25 @@
         <v>4</v>
       </c>
       <c r="H37">
-        <v>12093</v>
+        <v>12090</v>
       </c>
       <c r="I37" t="s">
         <v>5</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K37" t="s">
         <v>2</v>
       </c>
       <c r="L37">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="M37" t="s">
         <v>17</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="s">
         <v>3</v>
@@ -3854,25 +3854,25 @@
         <v>6</v>
       </c>
       <c r="R37">
-        <v>12515</v>
+        <v>16397</v>
       </c>
       <c r="S37" t="s">
         <v>7</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U37">
         <f t="shared" si="0"/>
-        <v>422</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4307</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>2</v>
       </c>
       <c r="B38">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
@@ -3890,7 +3890,7 @@
         <v>4</v>
       </c>
       <c r="H38">
-        <v>14243</v>
+        <v>18130</v>
       </c>
       <c r="I38" t="s">
         <v>5</v>
@@ -3902,7 +3902,7 @@
         <v>2</v>
       </c>
       <c r="L38">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="M38" t="s">
         <v>17</v>
@@ -3920,7 +3920,7 @@
         <v>6</v>
       </c>
       <c r="R38">
-        <v>18569</v>
+        <v>22535</v>
       </c>
       <c r="S38" t="s">
         <v>7</v>
@@ -3930,15 +3930,15 @@
       </c>
       <c r="U38">
         <f t="shared" si="0"/>
-        <v>4326</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>2</v>
       </c>
       <c r="B39">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -3956,7 +3956,7 @@
         <v>4</v>
       </c>
       <c r="H39">
-        <v>20303</v>
+        <v>24283</v>
       </c>
       <c r="I39" t="s">
         <v>5</v>
@@ -3968,7 +3968,7 @@
         <v>2</v>
       </c>
       <c r="L39">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="M39" t="s">
         <v>17</v>
@@ -3986,7 +3986,7 @@
         <v>6</v>
       </c>
       <c r="R39">
-        <v>24639</v>
+        <v>28605</v>
       </c>
       <c r="S39" t="s">
         <v>7</v>
@@ -3996,15 +3996,15 @@
       </c>
       <c r="U39">
         <f t="shared" si="0"/>
-        <v>4336</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>2</v>
       </c>
       <c r="B40">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C40" t="s">
         <v>17</v>
@@ -4022,7 +4022,7 @@
         <v>4</v>
       </c>
       <c r="H40">
-        <v>26378</v>
+        <v>30324</v>
       </c>
       <c r="I40" t="s">
         <v>5</v>
@@ -4034,7 +4034,7 @@
         <v>2</v>
       </c>
       <c r="L40">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M40" t="s">
         <v>17</v>
@@ -4052,7 +4052,7 @@
         <v>6</v>
       </c>
       <c r="R40">
-        <v>30713</v>
+        <v>34628</v>
       </c>
       <c r="S40" t="s">
         <v>7</v>
@@ -4062,21 +4062,21 @@
       </c>
       <c r="U40">
         <f t="shared" si="0"/>
-        <v>4335</v>
-      </c>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>2</v>
       </c>
       <c r="B41">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
         <v>17</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="s">
         <v>3</v>
@@ -4088,25 +4088,25 @@
         <v>4</v>
       </c>
       <c r="H41">
-        <v>32448</v>
+        <v>34629</v>
       </c>
       <c r="I41" t="s">
         <v>5</v>
       </c>
       <c r="J41">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K41" t="s">
         <v>2</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="M41" t="s">
         <v>17</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O41" t="s">
         <v>3</v>
@@ -4118,25 +4118,25 @@
         <v>6</v>
       </c>
       <c r="R41">
-        <v>36761</v>
+        <v>38918</v>
       </c>
       <c r="S41" t="s">
         <v>7</v>
       </c>
       <c r="T41">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U41">
         <f t="shared" si="0"/>
-        <v>4313</v>
-      </c>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>2</v>
       </c>
       <c r="B42">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C42" t="s">
         <v>17</v>
@@ -4154,7 +4154,7 @@
         <v>4</v>
       </c>
       <c r="H42">
-        <v>38500</v>
+        <v>40652</v>
       </c>
       <c r="I42" t="s">
         <v>5</v>
@@ -4166,7 +4166,7 @@
         <v>2</v>
       </c>
       <c r="L42">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="M42" t="s">
         <v>17</v>
@@ -4184,7 +4184,7 @@
         <v>6</v>
       </c>
       <c r="R42">
-        <v>42795</v>
+        <v>44985</v>
       </c>
       <c r="S42" t="s">
         <v>7</v>
@@ -4194,15 +4194,15 @@
       </c>
       <c r="U42">
         <f t="shared" si="0"/>
-        <v>4295</v>
-      </c>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>2</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
@@ -4220,7 +4220,7 @@
         <v>4</v>
       </c>
       <c r="H43">
-        <v>44532</v>
+        <v>46738</v>
       </c>
       <c r="I43" t="s">
         <v>5</v>
@@ -4232,7 +4232,7 @@
         <v>2</v>
       </c>
       <c r="L43">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="M43" t="s">
         <v>17</v>
@@ -4250,7 +4250,7 @@
         <v>6</v>
       </c>
       <c r="R43">
-        <v>49008</v>
+        <v>51047</v>
       </c>
       <c r="S43" t="s">
         <v>7</v>
@@ -4260,15 +4260,15 @@
       </c>
       <c r="U43">
         <f t="shared" si="0"/>
-        <v>4476</v>
-      </c>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>2</v>
       </c>
       <c r="B44">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C44" t="s">
         <v>17</v>
@@ -4286,7 +4286,7 @@
         <v>4</v>
       </c>
       <c r="H44">
-        <v>50736</v>
+        <v>52789</v>
       </c>
       <c r="I44" t="s">
         <v>5</v>
@@ -4298,7 +4298,7 @@
         <v>2</v>
       </c>
       <c r="L44">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="M44" t="s">
         <v>17</v>
@@ -4316,7 +4316,7 @@
         <v>6</v>
       </c>
       <c r="R44">
-        <v>55217</v>
+        <v>57271</v>
       </c>
       <c r="S44" t="s">
         <v>7</v>
@@ -4326,18 +4326,18 @@
       </c>
       <c r="U44">
         <f t="shared" si="0"/>
-        <v>4481</v>
+        <v>4482</v>
       </c>
       <c r="V44">
         <f>U12</f>
-        <v>4309</v>
+        <v>4295.3999999999996</v>
       </c>
       <c r="W44">
         <f>T12</f>
         <v>2047</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>15</v>
       </c>
@@ -4365,27 +4365,27 @@
       <c r="R45" s="2"/>
       <c r="T45">
         <f>AVERAGE(T35:T44)</f>
-        <v>1842.3</v>
+        <v>1637.6</v>
       </c>
       <c r="U45" s="2">
         <f>AVERAGE(U35:U44)</f>
-        <v>3962.8</v>
+        <v>4335.3</v>
       </c>
       <c r="V45">
         <f>U23</f>
-        <v>4327.3</v>
+        <v>4325.2</v>
       </c>
       <c r="W45">
         <f>T23</f>
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1842.3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>2</v>
       </c>
       <c r="B46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C46" t="s">
         <v>17</v>
@@ -4403,7 +4403,7 @@
         <v>4</v>
       </c>
       <c r="H46">
-        <v>1722</v>
+        <v>1742</v>
       </c>
       <c r="I46" t="s">
         <v>5</v>
@@ -4415,7 +4415,7 @@
         <v>2</v>
       </c>
       <c r="L46">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M46" t="s">
         <v>17</v>
@@ -4433,7 +4433,7 @@
         <v>6</v>
       </c>
       <c r="R46">
-        <v>6061</v>
+        <v>6060</v>
       </c>
       <c r="S46" t="s">
         <v>7</v>
@@ -4443,18 +4443,18 @@
       </c>
       <c r="U46">
         <f t="shared" si="0"/>
-        <v>4339</v>
+        <v>4318</v>
       </c>
       <c r="V46">
         <f>U34</f>
-        <v>4320.8</v>
+        <v>4308.8</v>
       </c>
       <c r="W46">
         <f>T34</f>
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1842.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>4</v>
       </c>
       <c r="H47">
-        <v>7791</v>
+        <v>7785</v>
       </c>
       <c r="I47" t="s">
         <v>5</v>
@@ -4507,7 +4507,7 @@
         <v>6</v>
       </c>
       <c r="R47">
-        <v>12126</v>
+        <v>12324</v>
       </c>
       <c r="S47" t="s">
         <v>7</v>
@@ -4517,23 +4517,23 @@
       </c>
       <c r="U47">
         <f t="shared" si="0"/>
-        <v>4335</v>
+        <v>4539</v>
       </c>
       <c r="V47">
         <f>U45</f>
-        <v>3962.8</v>
+        <v>4335.3</v>
       </c>
       <c r="W47">
         <f>T45</f>
-        <v>1842.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1637.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>2</v>
       </c>
       <c r="B48">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
         <v>17</v>
@@ -4551,7 +4551,7 @@
         <v>4</v>
       </c>
       <c r="H48">
-        <v>13879</v>
+        <v>14049</v>
       </c>
       <c r="I48" t="s">
         <v>5</v>
@@ -4563,7 +4563,7 @@
         <v>2</v>
       </c>
       <c r="L48">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="M48" t="s">
         <v>17</v>
@@ -4581,7 +4581,7 @@
         <v>6</v>
       </c>
       <c r="R48">
-        <v>18189</v>
+        <v>18357</v>
       </c>
       <c r="S48" t="s">
         <v>7</v>
@@ -4591,29 +4591,29 @@
       </c>
       <c r="U48">
         <f t="shared" si="0"/>
-        <v>4310</v>
+        <v>4308</v>
       </c>
       <c r="V48">
         <f>U56</f>
-        <v>4354.1000000000004</v>
+        <v>4343.5</v>
       </c>
       <c r="W48">
         <f>T56</f>
-        <v>2047</v>
-      </c>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1637.6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>2</v>
       </c>
       <c r="B49">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
         <v>17</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="s">
         <v>3</v>
@@ -4625,25 +4625,25 @@
         <v>4</v>
       </c>
       <c r="H49">
-        <v>19909</v>
+        <v>18358</v>
       </c>
       <c r="I49" t="s">
         <v>5</v>
       </c>
       <c r="J49">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K49" t="s">
         <v>2</v>
       </c>
       <c r="L49">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M49" t="s">
         <v>17</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="s">
         <v>3</v>
@@ -4655,33 +4655,33 @@
         <v>6</v>
       </c>
       <c r="R49">
-        <v>24269</v>
+        <v>22667</v>
       </c>
       <c r="S49" t="s">
         <v>7</v>
       </c>
       <c r="T49">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U49">
         <f t="shared" si="0"/>
-        <v>4360</v>
+        <v>4309</v>
       </c>
       <c r="V49">
         <f>U67</f>
-        <v>3196.9</v>
+        <v>4330.2</v>
       </c>
       <c r="W49">
         <f>T67</f>
         <v>1432.9</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>2</v>
       </c>
       <c r="B50">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
         <v>17</v>
@@ -4699,7 +4699,7 @@
         <v>4</v>
       </c>
       <c r="H50">
-        <v>26016</v>
+        <v>24421</v>
       </c>
       <c r="I50" t="s">
         <v>5</v>
@@ -4711,7 +4711,7 @@
         <v>2</v>
       </c>
       <c r="L50">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="M50" t="s">
         <v>17</v>
@@ -4729,7 +4729,7 @@
         <v>6</v>
       </c>
       <c r="R50">
-        <v>30504</v>
+        <v>28728</v>
       </c>
       <c r="S50" t="s">
         <v>7</v>
@@ -4739,23 +4739,23 @@
       </c>
       <c r="U50">
         <f t="shared" si="0"/>
-        <v>4488</v>
+        <v>4307</v>
       </c>
       <c r="V50">
         <f>U78</f>
-        <v>3628.5</v>
+        <v>4380.6000000000004</v>
       </c>
       <c r="W50">
         <f>T78</f>
-        <v>1637.6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1432.9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>2</v>
       </c>
       <c r="B51">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s">
         <v>17</v>
@@ -4773,7 +4773,7 @@
         <v>4</v>
       </c>
       <c r="H51">
-        <v>32243</v>
+        <v>30456</v>
       </c>
       <c r="I51" t="s">
         <v>5</v>
@@ -4785,7 +4785,7 @@
         <v>2</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="M51" t="s">
         <v>17</v>
@@ -4803,7 +4803,7 @@
         <v>6</v>
       </c>
       <c r="R51">
-        <v>36556</v>
+        <v>34765</v>
       </c>
       <c r="S51" t="s">
         <v>7</v>
@@ -4813,23 +4813,23 @@
       </c>
       <c r="U51">
         <f t="shared" si="0"/>
-        <v>4313</v>
+        <v>4309</v>
       </c>
       <c r="V51">
         <f>U89</f>
-        <v>4020.9</v>
+        <v>4389.7</v>
       </c>
       <c r="W51">
         <f>T89</f>
-        <v>1842.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1228.2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>2</v>
       </c>
       <c r="B52">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
         <v>17</v>
@@ -4847,7 +4847,7 @@
         <v>4</v>
       </c>
       <c r="H52">
-        <v>38293</v>
+        <v>36500</v>
       </c>
       <c r="I52" t="s">
         <v>5</v>
@@ -4859,7 +4859,7 @@
         <v>2</v>
       </c>
       <c r="L52">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="M52" t="s">
         <v>17</v>
@@ -4877,7 +4877,7 @@
         <v>6</v>
       </c>
       <c r="R52">
-        <v>42647</v>
+        <v>40899</v>
       </c>
       <c r="S52" t="s">
         <v>7</v>
@@ -4887,29 +4887,29 @@
       </c>
       <c r="U52">
         <f t="shared" si="0"/>
-        <v>4354</v>
+        <v>4399</v>
       </c>
       <c r="V52">
         <f>U100</f>
-        <v>3682.3</v>
+        <v>4409</v>
       </c>
       <c r="W52">
         <f>T100</f>
-        <v>1637.6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1228.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>2</v>
       </c>
       <c r="B53">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" t="s">
         <v>3</v>
@@ -4921,25 +4921,25 @@
         <v>4</v>
       </c>
       <c r="H53">
-        <v>44373</v>
+        <v>40900</v>
       </c>
       <c r="I53" t="s">
         <v>5</v>
       </c>
       <c r="J53">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K53" t="s">
         <v>2</v>
       </c>
       <c r="L53">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="M53" t="s">
         <v>17</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="s">
         <v>3</v>
@@ -4951,33 +4951,33 @@
         <v>6</v>
       </c>
       <c r="R53">
-        <v>48734</v>
+        <v>45197</v>
       </c>
       <c r="S53" t="s">
         <v>7</v>
       </c>
       <c r="T53">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U53">
         <f t="shared" si="0"/>
-        <v>4361</v>
+        <v>4297</v>
       </c>
       <c r="V53">
         <f>U111</f>
-        <v>3413.1</v>
+        <v>4525.6000000000004</v>
       </c>
       <c r="W53">
         <f>T111</f>
-        <v>1432.9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+        <v>1228.2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>2</v>
       </c>
       <c r="B54">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -4995,7 +4995,7 @@
         <v>4</v>
       </c>
       <c r="H54">
-        <v>50479</v>
+        <v>46934</v>
       </c>
       <c r="I54" t="s">
         <v>5</v>
@@ -5007,7 +5007,7 @@
         <v>2</v>
       </c>
       <c r="L54">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="M54" t="s">
         <v>17</v>
@@ -5025,7 +5025,7 @@
         <v>6</v>
       </c>
       <c r="R54">
-        <v>54810</v>
+        <v>51271</v>
       </c>
       <c r="S54" t="s">
         <v>7</v>
@@ -5035,15 +5035,15 @@
       </c>
       <c r="U54">
         <f t="shared" si="0"/>
-        <v>4331</v>
-      </c>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4337</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>2</v>
       </c>
       <c r="B55">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -5061,7 +5061,7 @@
         <v>4</v>
       </c>
       <c r="H55">
-        <v>56554</v>
+        <v>53001</v>
       </c>
       <c r="I55" t="s">
         <v>5</v>
@@ -5073,7 +5073,7 @@
         <v>2</v>
       </c>
       <c r="L55">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="M55" t="s">
         <v>17</v>
@@ -5091,7 +5091,7 @@
         <v>6</v>
       </c>
       <c r="R55">
-        <v>60904</v>
+        <v>57313</v>
       </c>
       <c r="S55" t="s">
         <v>7</v>
@@ -5101,10 +5101,10 @@
       </c>
       <c r="U55">
         <f t="shared" si="0"/>
-        <v>4350</v>
-      </c>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>15</v>
       </c>
@@ -5132,19 +5132,19 @@
       <c r="R56" s="2"/>
       <c r="T56">
         <f>AVERAGE(T46:T55)</f>
-        <v>2047</v>
+        <v>1637.6</v>
       </c>
       <c r="U56" s="2">
         <f>AVERAGE(U46:U55)</f>
-        <v>4354.1000000000004</v>
-      </c>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4343.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>2</v>
       </c>
       <c r="B57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
@@ -5162,7 +5162,7 @@
         <v>4</v>
       </c>
       <c r="H57">
-        <v>1700</v>
+        <v>1748</v>
       </c>
       <c r="I57" t="s">
         <v>5</v>
@@ -5174,7 +5174,7 @@
         <v>2</v>
       </c>
       <c r="L57">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M57" t="s">
         <v>17</v>
@@ -5192,7 +5192,7 @@
         <v>6</v>
       </c>
       <c r="R57">
-        <v>6209</v>
+        <v>6108</v>
       </c>
       <c r="S57" t="s">
         <v>7</v>
@@ -5202,15 +5202,15 @@
       </c>
       <c r="U57">
         <f t="shared" si="0"/>
-        <v>4509</v>
-      </c>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>2</v>
       </c>
       <c r="B58">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
@@ -5228,7 +5228,7 @@
         <v>4</v>
       </c>
       <c r="H58">
-        <v>7952</v>
+        <v>7838</v>
       </c>
       <c r="I58" t="s">
         <v>5</v>
@@ -5240,7 +5240,7 @@
         <v>2</v>
       </c>
       <c r="L58">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="M58" t="s">
         <v>17</v>
@@ -5258,7 +5258,7 @@
         <v>6</v>
       </c>
       <c r="R58">
-        <v>12280</v>
+        <v>12171</v>
       </c>
       <c r="S58" t="s">
         <v>7</v>
@@ -5268,21 +5268,21 @@
       </c>
       <c r="U58">
         <f t="shared" si="0"/>
-        <v>4328</v>
-      </c>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>2</v>
       </c>
       <c r="B59">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" t="s">
         <v>3</v>
@@ -5294,25 +5294,25 @@
         <v>4</v>
       </c>
       <c r="H59">
-        <v>14020</v>
+        <v>12172</v>
       </c>
       <c r="I59" t="s">
         <v>5</v>
       </c>
       <c r="J59">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K59" t="s">
         <v>2</v>
       </c>
       <c r="L59">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M59" t="s">
         <v>17</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O59" t="s">
         <v>3</v>
@@ -5324,25 +5324,25 @@
         <v>6</v>
       </c>
       <c r="R59">
-        <v>18343</v>
+        <v>16517</v>
       </c>
       <c r="S59" t="s">
         <v>7</v>
       </c>
       <c r="T59">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U59">
         <f t="shared" si="0"/>
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4345</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>2</v>
       </c>
       <c r="B60">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -5360,7 +5360,7 @@
         <v>4</v>
       </c>
       <c r="H60">
-        <v>20090</v>
+        <v>18258</v>
       </c>
       <c r="I60" t="s">
         <v>5</v>
@@ -5372,7 +5372,7 @@
         <v>2</v>
       </c>
       <c r="L60">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M60" t="s">
         <v>17</v>
@@ -5390,7 +5390,7 @@
         <v>6</v>
       </c>
       <c r="R60">
-        <v>24472</v>
+        <v>22653</v>
       </c>
       <c r="S60" t="s">
         <v>7</v>
@@ -5400,15 +5400,15 @@
       </c>
       <c r="U60">
         <f t="shared" si="0"/>
-        <v>4382</v>
-      </c>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>2</v>
       </c>
       <c r="B61">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -5426,7 +5426,7 @@
         <v>4</v>
       </c>
       <c r="H61">
-        <v>26194</v>
+        <v>24377</v>
       </c>
       <c r="I61" t="s">
         <v>5</v>
@@ -5438,7 +5438,7 @@
         <v>2</v>
       </c>
       <c r="L61">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="M61" t="s">
         <v>17</v>
@@ -5456,7 +5456,7 @@
         <v>6</v>
       </c>
       <c r="R61">
-        <v>30523</v>
+        <v>28668</v>
       </c>
       <c r="S61" t="s">
         <v>7</v>
@@ -5466,15 +5466,15 @@
       </c>
       <c r="U61">
         <f t="shared" si="0"/>
-        <v>4329</v>
-      </c>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4291</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>2</v>
       </c>
       <c r="B62">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -5492,7 +5492,7 @@
         <v>4</v>
       </c>
       <c r="H62">
-        <v>30524</v>
+        <v>28669</v>
       </c>
       <c r="I62" t="s">
         <v>5</v>
@@ -5504,7 +5504,7 @@
         <v>2</v>
       </c>
       <c r="L62">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="M62" t="s">
         <v>17</v>
@@ -5522,7 +5522,7 @@
         <v>6</v>
       </c>
       <c r="R62">
-        <v>30942</v>
+        <v>33023</v>
       </c>
       <c r="S62" t="s">
         <v>7</v>
@@ -5532,21 +5532,21 @@
       </c>
       <c r="U62">
         <f t="shared" si="0"/>
-        <v>418</v>
-      </c>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>2</v>
       </c>
       <c r="B63">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E63" t="s">
         <v>3</v>
@@ -5558,25 +5558,25 @@
         <v>4</v>
       </c>
       <c r="H63">
-        <v>30943</v>
+        <v>34755</v>
       </c>
       <c r="I63" t="s">
         <v>5</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K63" t="s">
         <v>2</v>
       </c>
       <c r="L63">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="M63" t="s">
         <v>17</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" t="s">
         <v>3</v>
@@ -5588,25 +5588,25 @@
         <v>6</v>
       </c>
       <c r="R63">
-        <v>31394</v>
+        <v>39077</v>
       </c>
       <c r="S63" t="s">
         <v>7</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U63">
         <f t="shared" si="0"/>
-        <v>451</v>
-      </c>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+        <v>4322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>2</v>
       </c>
       <c r="B64">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
@@ -5624,7 +5624,7 @@
         <v>4</v>
       </c>
       <c r="H64">
-        <v>33120</v>
+        <v>40794</v>
       </c>
       <c r="I64" t="s">
         <v>5</v>
@@ -5636,7 +5636,7 @@
         <v>2</v>
       </c>
       <c r="L64">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M64" t="s">
         <v>17</v>
@@ -5654,7 +5654,7 @@
         <v>6</v>
       </c>
       <c r="R64">
-        <v>37559</v>
+        <v>45075</v>
       </c>
       <c r="S64" t="s">
         <v>7</v>
@@ -5664,10 +5664,10 @@
       </c>
       <c r="U64">
         <f t="shared" si="0"/>
-        <v>4439</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>4</v>
       </c>
       <c r="H65">
-        <v>37560</v>
+        <v>45076</v>
       </c>
       <c r="I65" t="s">
         <v>5</v>
@@ -5720,7 +5720,7 @@
         <v>6</v>
       </c>
       <c r="R65">
-        <v>37995</v>
+        <v>49369</v>
       </c>
       <c r="S65" t="s">
         <v>7</v>
@@ -5730,15 +5730,15 @@
       </c>
       <c r="U65">
         <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>2</v>
       </c>
       <c r="B66">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -5756,7 +5756,7 @@
         <v>4</v>
       </c>
       <c r="H66">
-        <v>39717</v>
+        <v>51116</v>
       </c>
       <c r="I66" t="s">
         <v>5</v>
@@ -5768,7 +5768,7 @@
         <v>2</v>
       </c>
       <c r="L66">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="M66" t="s">
         <v>17</v>
@@ -5786,7 +5786,7 @@
         <v>6</v>
       </c>
       <c r="R66">
-        <v>44072</v>
+        <v>55444</v>
       </c>
       <c r="S66" t="s">
         <v>7</v>
@@ -5796,10 +5796,10 @@
       </c>
       <c r="U66">
         <f t="shared" si="0"/>
-        <v>4355</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -5831,15 +5831,15 @@
       </c>
       <c r="U67" s="2">
         <f>AVERAGE(U57:U66)</f>
-        <v>3196.9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4330.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>2</v>
       </c>
       <c r="B68">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -5857,7 +5857,7 @@
         <v>4</v>
       </c>
       <c r="H68">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="I68" t="s">
         <v>5</v>
@@ -5869,7 +5869,7 @@
         <v>2</v>
       </c>
       <c r="L68">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="M68" t="s">
         <v>17</v>
@@ -5887,7 +5887,7 @@
         <v>6</v>
       </c>
       <c r="R68">
-        <v>6078</v>
+        <v>6075</v>
       </c>
       <c r="S68" t="s">
         <v>7</v>
@@ -5897,21 +5897,21 @@
       </c>
       <c r="U68">
         <f t="shared" ref="U68:U110" si="1">R68-H68</f>
-        <v>4356</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4357</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>2</v>
       </c>
       <c r="B69">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
         <v>3</v>
@@ -5923,25 +5923,25 @@
         <v>4</v>
       </c>
       <c r="H69">
-        <v>7807</v>
+        <v>6076</v>
       </c>
       <c r="I69" t="s">
         <v>5</v>
       </c>
       <c r="J69">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K69" t="s">
         <v>2</v>
       </c>
       <c r="L69">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M69" t="s">
         <v>17</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="s">
         <v>3</v>
@@ -5953,25 +5953,25 @@
         <v>6</v>
       </c>
       <c r="R69">
-        <v>12126</v>
+        <v>10410</v>
       </c>
       <c r="S69" t="s">
         <v>7</v>
       </c>
       <c r="T69">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U69">
         <f t="shared" si="1"/>
-        <v>4319</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>2</v>
       </c>
       <c r="B70">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -5989,7 +5989,7 @@
         <v>4</v>
       </c>
       <c r="H70">
-        <v>13860</v>
+        <v>12145</v>
       </c>
       <c r="I70" t="s">
         <v>5</v>
@@ -6001,7 +6001,7 @@
         <v>2</v>
       </c>
       <c r="L70">
-        <v>99</v>
+        <v>22</v>
       </c>
       <c r="M70" t="s">
         <v>17</v>
@@ -6019,7 +6019,7 @@
         <v>6</v>
       </c>
       <c r="R70">
-        <v>18295</v>
+        <v>16489</v>
       </c>
       <c r="S70" t="s">
         <v>7</v>
@@ -6029,15 +6029,15 @@
       </c>
       <c r="U70">
         <f t="shared" si="1"/>
-        <v>4435</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>2</v>
       </c>
       <c r="B71">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
@@ -6055,7 +6055,7 @@
         <v>4</v>
       </c>
       <c r="H71">
-        <v>18296</v>
+        <v>16490</v>
       </c>
       <c r="I71" t="s">
         <v>5</v>
@@ -6067,7 +6067,7 @@
         <v>2</v>
       </c>
       <c r="L71">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="M71" t="s">
         <v>17</v>
@@ -6085,7 +6085,7 @@
         <v>6</v>
       </c>
       <c r="R71">
-        <v>18762</v>
+        <v>20883</v>
       </c>
       <c r="S71" t="s">
         <v>7</v>
@@ -6095,21 +6095,21 @@
       </c>
       <c r="U71">
         <f t="shared" si="1"/>
-        <v>466</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4393</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>2</v>
       </c>
       <c r="B72">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" t="s">
         <v>3</v>
@@ -6121,25 +6121,25 @@
         <v>4</v>
       </c>
       <c r="H72">
-        <v>18763</v>
+        <v>22629</v>
       </c>
       <c r="I72" t="s">
         <v>5</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K72" t="s">
         <v>2</v>
       </c>
       <c r="L72">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M72" t="s">
         <v>17</v>
       </c>
       <c r="N72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O72" t="s">
         <v>3</v>
@@ -6151,31 +6151,31 @@
         <v>6</v>
       </c>
       <c r="R72">
-        <v>19233</v>
+        <v>26959</v>
       </c>
       <c r="S72" t="s">
         <v>7</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U72">
         <f t="shared" si="1"/>
-        <v>470</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4330</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>2</v>
       </c>
       <c r="B73">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" t="s">
         <v>3</v>
@@ -6187,25 +6187,25 @@
         <v>4</v>
       </c>
       <c r="H73">
-        <v>20976</v>
+        <v>26960</v>
       </c>
       <c r="I73" t="s">
         <v>5</v>
       </c>
       <c r="J73">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K73" t="s">
         <v>2</v>
       </c>
       <c r="L73">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="M73" t="s">
         <v>17</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="s">
         <v>3</v>
@@ -6217,25 +6217,25 @@
         <v>6</v>
       </c>
       <c r="R73">
-        <v>25368</v>
+        <v>31331</v>
       </c>
       <c r="S73" t="s">
         <v>7</v>
       </c>
       <c r="T73">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U73">
         <f t="shared" si="1"/>
-        <v>4392</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>2</v>
       </c>
       <c r="B74">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -6253,7 +6253,7 @@
         <v>4</v>
       </c>
       <c r="H74">
-        <v>27099</v>
+        <v>33077</v>
       </c>
       <c r="I74" t="s">
         <v>5</v>
@@ -6265,7 +6265,7 @@
         <v>2</v>
       </c>
       <c r="L74">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M74" t="s">
         <v>17</v>
@@ -6283,7 +6283,7 @@
         <v>6</v>
       </c>
       <c r="R74">
-        <v>31905</v>
+        <v>37415</v>
       </c>
       <c r="S74" t="s">
         <v>7</v>
@@ -6293,15 +6293,15 @@
       </c>
       <c r="U74">
         <f t="shared" si="1"/>
-        <v>4806</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4338</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>2</v>
       </c>
       <c r="B75">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -6319,7 +6319,7 @@
         <v>4</v>
       </c>
       <c r="H75">
-        <v>33639</v>
+        <v>39143</v>
       </c>
       <c r="I75" t="s">
         <v>5</v>
@@ -6331,7 +6331,7 @@
         <v>2</v>
       </c>
       <c r="L75">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="M75" t="s">
         <v>17</v>
@@ -6349,7 +6349,7 @@
         <v>6</v>
       </c>
       <c r="R75">
-        <v>37989</v>
+        <v>43638</v>
       </c>
       <c r="S75" t="s">
         <v>7</v>
@@ -6359,15 +6359,15 @@
       </c>
       <c r="U75">
         <f t="shared" si="1"/>
-        <v>4350</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4495</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>2</v>
       </c>
       <c r="B76">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -6385,7 +6385,7 @@
         <v>4</v>
       </c>
       <c r="H76">
-        <v>39739</v>
+        <v>45357</v>
       </c>
       <c r="I76" t="s">
         <v>5</v>
@@ -6397,7 +6397,7 @@
         <v>2</v>
       </c>
       <c r="L76">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="M76" t="s">
         <v>17</v>
@@ -6415,7 +6415,7 @@
         <v>6</v>
       </c>
       <c r="R76">
-        <v>44085</v>
+        <v>49713</v>
       </c>
       <c r="S76" t="s">
         <v>7</v>
@@ -6425,15 +6425,15 @@
       </c>
       <c r="U76">
         <f t="shared" si="1"/>
-        <v>4346</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>2</v>
       </c>
       <c r="B77">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -6451,7 +6451,7 @@
         <v>4</v>
       </c>
       <c r="H77">
-        <v>45811</v>
+        <v>51441</v>
       </c>
       <c r="I77" t="s">
         <v>5</v>
@@ -6463,7 +6463,7 @@
         <v>2</v>
       </c>
       <c r="L77">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="M77" t="s">
         <v>17</v>
@@ -6481,7 +6481,7 @@
         <v>6</v>
       </c>
       <c r="R77">
-        <v>50156</v>
+        <v>55929</v>
       </c>
       <c r="S77" t="s">
         <v>7</v>
@@ -6491,10 +6491,10 @@
       </c>
       <c r="U77">
         <f t="shared" si="1"/>
-        <v>4345</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4488</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>15</v>
       </c>
@@ -6522,19 +6522,19 @@
       <c r="R78" s="2"/>
       <c r="T78">
         <f>AVERAGE(T68:T77)</f>
-        <v>1637.6</v>
+        <v>1432.9</v>
       </c>
       <c r="U78" s="2">
         <f>AVERAGE(U68:U77)</f>
-        <v>3628.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4380.6000000000004</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>2</v>
       </c>
       <c r="B79">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
@@ -6552,7 +6552,7 @@
         <v>4</v>
       </c>
       <c r="H79">
-        <v>1737</v>
+        <v>1742</v>
       </c>
       <c r="I79" t="s">
         <v>5</v>
@@ -6564,7 +6564,7 @@
         <v>2</v>
       </c>
       <c r="L79">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M79" t="s">
         <v>17</v>
@@ -6582,7 +6582,7 @@
         <v>6</v>
       </c>
       <c r="R79">
-        <v>6154</v>
+        <v>6109</v>
       </c>
       <c r="S79" t="s">
         <v>7</v>
@@ -6592,15 +6592,15 @@
       </c>
       <c r="U79">
         <f t="shared" si="1"/>
-        <v>4417</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>2</v>
       </c>
       <c r="B80">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
         <v>17</v>
@@ -6618,7 +6618,7 @@
         <v>4</v>
       </c>
       <c r="H80">
-        <v>6155</v>
+        <v>6110</v>
       </c>
       <c r="I80" t="s">
         <v>5</v>
@@ -6630,7 +6630,7 @@
         <v>2</v>
       </c>
       <c r="L80">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M80" t="s">
         <v>17</v>
@@ -6648,7 +6648,7 @@
         <v>6</v>
       </c>
       <c r="R80">
-        <v>6755</v>
+        <v>10519</v>
       </c>
       <c r="S80" t="s">
         <v>7</v>
@@ -6658,15 +6658,15 @@
       </c>
       <c r="U80">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>2</v>
       </c>
       <c r="B81">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="C81" t="s">
         <v>17</v>
@@ -6684,7 +6684,7 @@
         <v>4</v>
       </c>
       <c r="H81">
-        <v>8485</v>
+        <v>12252</v>
       </c>
       <c r="I81" t="s">
         <v>5</v>
@@ -6696,7 +6696,7 @@
         <v>2</v>
       </c>
       <c r="L81">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="M81" t="s">
         <v>17</v>
@@ -6714,7 +6714,7 @@
         <v>6</v>
       </c>
       <c r="R81">
-        <v>12875</v>
+        <v>16709</v>
       </c>
       <c r="S81" t="s">
         <v>7</v>
@@ -6724,21 +6724,21 @@
       </c>
       <c r="U81">
         <f t="shared" si="1"/>
-        <v>4390</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>2</v>
       </c>
       <c r="B82">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C82" t="s">
         <v>17</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="s">
         <v>3</v>
@@ -6750,25 +6750,25 @@
         <v>4</v>
       </c>
       <c r="H82">
-        <v>14576</v>
+        <v>16710</v>
       </c>
       <c r="I82" t="s">
         <v>5</v>
       </c>
       <c r="J82">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K82" t="s">
         <v>2</v>
       </c>
       <c r="L82">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="M82" t="s">
         <v>17</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="s">
         <v>3</v>
@@ -6780,25 +6780,25 @@
         <v>6</v>
       </c>
       <c r="R82">
-        <v>19017</v>
+        <v>21088</v>
       </c>
       <c r="S82" t="s">
         <v>7</v>
       </c>
       <c r="T82">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U82">
         <f t="shared" si="1"/>
-        <v>4441</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4378</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>2</v>
       </c>
       <c r="B83">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="C83" t="s">
         <v>17</v>
@@ -6816,7 +6816,7 @@
         <v>4</v>
       </c>
       <c r="H83">
-        <v>20741</v>
+        <v>22812</v>
       </c>
       <c r="I83" t="s">
         <v>5</v>
@@ -6828,7 +6828,7 @@
         <v>2</v>
       </c>
       <c r="L83">
-        <v>95</v>
+        <v>44</v>
       </c>
       <c r="M83" t="s">
         <v>17</v>
@@ -6846,7 +6846,7 @@
         <v>6</v>
       </c>
       <c r="R83">
-        <v>25102</v>
+        <v>27302</v>
       </c>
       <c r="S83" t="s">
         <v>7</v>
@@ -6856,21 +6856,21 @@
       </c>
       <c r="U83">
         <f t="shared" si="1"/>
-        <v>4361</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4490</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>2</v>
       </c>
       <c r="B84">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C84" t="s">
         <v>17</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" t="s">
         <v>3</v>
@@ -6882,25 +6882,25 @@
         <v>4</v>
       </c>
       <c r="H84">
-        <v>26830</v>
+        <v>27303</v>
       </c>
       <c r="I84" t="s">
         <v>5</v>
       </c>
       <c r="J84">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K84" t="s">
         <v>2</v>
       </c>
       <c r="L84">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="M84" t="s">
         <v>17</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O84" t="s">
         <v>3</v>
@@ -6912,25 +6912,25 @@
         <v>6</v>
       </c>
       <c r="R84">
-        <v>31294</v>
+        <v>31623</v>
       </c>
       <c r="S84" t="s">
         <v>7</v>
       </c>
       <c r="T84">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U84">
         <f t="shared" si="1"/>
-        <v>4464</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>2</v>
       </c>
       <c r="B85">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
@@ -6948,7 +6948,7 @@
         <v>4</v>
       </c>
       <c r="H85">
-        <v>33029</v>
+        <v>33364</v>
       </c>
       <c r="I85" t="s">
         <v>5</v>
@@ -6960,7 +6960,7 @@
         <v>2</v>
       </c>
       <c r="L85">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="M85" t="s">
         <v>17</v>
@@ -6978,7 +6978,7 @@
         <v>6</v>
       </c>
       <c r="R85">
-        <v>37427</v>
+        <v>37700</v>
       </c>
       <c r="S85" t="s">
         <v>7</v>
@@ -6988,21 +6988,21 @@
       </c>
       <c r="U85">
         <f t="shared" si="1"/>
-        <v>4398</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>2</v>
       </c>
       <c r="B86">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
         <v>17</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" t="s">
         <v>3</v>
@@ -7014,25 +7014,25 @@
         <v>4</v>
       </c>
       <c r="H86">
-        <v>39167</v>
+        <v>37701</v>
       </c>
       <c r="I86" t="s">
         <v>5</v>
       </c>
       <c r="J86">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K86" t="s">
         <v>2</v>
       </c>
       <c r="L86">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M86" t="s">
         <v>17</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O86" t="s">
         <v>3</v>
@@ -7044,25 +7044,25 @@
         <v>6</v>
       </c>
       <c r="R86">
-        <v>43543</v>
+        <v>42072</v>
       </c>
       <c r="S86" t="s">
         <v>7</v>
       </c>
       <c r="T86">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U86">
         <f t="shared" si="1"/>
-        <v>4376</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>2</v>
       </c>
       <c r="B87">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C87" t="s">
         <v>17</v>
@@ -7080,7 +7080,7 @@
         <v>4</v>
       </c>
       <c r="H87">
-        <v>45268</v>
+        <v>43809</v>
       </c>
       <c r="I87" t="s">
         <v>5</v>
@@ -7092,7 +7092,7 @@
         <v>2</v>
       </c>
       <c r="L87">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M87" t="s">
         <v>17</v>
@@ -7110,7 +7110,7 @@
         <v>6</v>
       </c>
       <c r="R87">
-        <v>49648</v>
+        <v>48214</v>
       </c>
       <c r="S87" t="s">
         <v>7</v>
@@ -7120,15 +7120,15 @@
       </c>
       <c r="U87">
         <f t="shared" si="1"/>
-        <v>4380</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>2</v>
       </c>
       <c r="B88">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="C88" t="s">
         <v>17</v>
@@ -7146,7 +7146,7 @@
         <v>4</v>
       </c>
       <c r="H88">
-        <v>51368</v>
+        <v>49933</v>
       </c>
       <c r="I88" t="s">
         <v>5</v>
@@ -7158,7 +7158,7 @@
         <v>2</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>99</v>
       </c>
       <c r="M88" t="s">
         <v>17</v>
@@ -7176,7 +7176,7 @@
         <v>6</v>
       </c>
       <c r="R88">
-        <v>55750</v>
+        <v>54297</v>
       </c>
       <c r="S88" t="s">
         <v>7</v>
@@ -7186,10 +7186,10 @@
       </c>
       <c r="U88">
         <f t="shared" si="1"/>
-        <v>4382</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -7217,19 +7217,19 @@
       <c r="R89" s="2"/>
       <c r="T89">
         <f>AVERAGE(T79:T88)</f>
-        <v>1842.3</v>
+        <v>1228.2</v>
       </c>
       <c r="U89" s="2">
         <f>AVERAGE(U79:U88)</f>
-        <v>4020.9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4389.7</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>2</v>
       </c>
       <c r="B90">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C90" t="s">
         <v>17</v>
@@ -7247,7 +7247,7 @@
         <v>4</v>
       </c>
       <c r="H90">
-        <v>1713</v>
+        <v>1736</v>
       </c>
       <c r="I90" t="s">
         <v>5</v>
@@ -7259,7 +7259,7 @@
         <v>2</v>
       </c>
       <c r="L90">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M90" t="s">
         <v>17</v>
@@ -7277,7 +7277,7 @@
         <v>6</v>
       </c>
       <c r="R90">
-        <v>6178</v>
+        <v>6127</v>
       </c>
       <c r="S90" t="s">
         <v>7</v>
@@ -7287,21 +7287,21 @@
       </c>
       <c r="U90">
         <f t="shared" si="1"/>
-        <v>4465</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4391</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>2</v>
       </c>
       <c r="B91">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="C91" t="s">
         <v>17</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" t="s">
         <v>3</v>
@@ -7313,25 +7313,25 @@
         <v>4</v>
       </c>
       <c r="H91">
-        <v>7892</v>
+        <v>6128</v>
       </c>
       <c r="I91" t="s">
         <v>5</v>
       </c>
       <c r="J91">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K91" t="s">
         <v>2</v>
       </c>
       <c r="L91">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="M91" t="s">
         <v>17</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O91" t="s">
         <v>3</v>
@@ -7343,25 +7343,25 @@
         <v>6</v>
       </c>
       <c r="R91">
-        <v>12294</v>
+        <v>10486</v>
       </c>
       <c r="S91" t="s">
         <v>7</v>
       </c>
       <c r="T91">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U91">
         <f t="shared" si="1"/>
-        <v>4402</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4358</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>2</v>
       </c>
       <c r="B92">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="C92" t="s">
         <v>17</v>
@@ -7379,7 +7379,7 @@
         <v>4</v>
       </c>
       <c r="H92">
-        <v>14022</v>
+        <v>12218</v>
       </c>
       <c r="I92" t="s">
         <v>5</v>
@@ -7391,7 +7391,7 @@
         <v>2</v>
       </c>
       <c r="L92">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="M92" t="s">
         <v>17</v>
@@ -7409,7 +7409,7 @@
         <v>6</v>
       </c>
       <c r="R92">
-        <v>18478</v>
+        <v>16702</v>
       </c>
       <c r="S92" t="s">
         <v>7</v>
@@ -7419,21 +7419,21 @@
       </c>
       <c r="U92">
         <f t="shared" si="1"/>
-        <v>4456</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4484</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>2</v>
       </c>
       <c r="B93">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="C93" t="s">
         <v>17</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" t="s">
         <v>3</v>
@@ -7445,25 +7445,25 @@
         <v>4</v>
       </c>
       <c r="H93">
-        <v>20210</v>
+        <v>16703</v>
       </c>
       <c r="I93" t="s">
         <v>5</v>
       </c>
       <c r="J93">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K93" t="s">
         <v>2</v>
       </c>
       <c r="L93">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="M93" t="s">
         <v>17</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O93" t="s">
         <v>3</v>
@@ -7475,25 +7475,25 @@
         <v>6</v>
       </c>
       <c r="R93">
-        <v>24775</v>
+        <v>21087</v>
       </c>
       <c r="S93" t="s">
         <v>7</v>
       </c>
       <c r="T93">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U93">
         <f t="shared" si="1"/>
-        <v>4565</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>2</v>
       </c>
       <c r="B94">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="C94" t="s">
         <v>17</v>
@@ -7511,7 +7511,7 @@
         <v>4</v>
       </c>
       <c r="H94">
-        <v>26494</v>
+        <v>22788</v>
       </c>
       <c r="I94" t="s">
         <v>5</v>
@@ -7523,7 +7523,7 @@
         <v>2</v>
       </c>
       <c r="L94">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="M94" t="s">
         <v>17</v>
@@ -7541,7 +7541,7 @@
         <v>6</v>
       </c>
       <c r="R94">
-        <v>30980</v>
+        <v>27192</v>
       </c>
       <c r="S94" t="s">
         <v>7</v>
@@ -7551,21 +7551,21 @@
       </c>
       <c r="U94">
         <f t="shared" si="1"/>
-        <v>4486</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4404</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>2</v>
       </c>
       <c r="B95">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="C95" t="s">
         <v>17</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="s">
         <v>3</v>
@@ -7577,25 +7577,25 @@
         <v>4</v>
       </c>
       <c r="H95">
-        <v>32678</v>
+        <v>27193</v>
       </c>
       <c r="I95" t="s">
         <v>5</v>
       </c>
       <c r="J95">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K95" t="s">
         <v>2</v>
       </c>
       <c r="L95">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="M95" t="s">
         <v>17</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95" t="s">
         <v>3</v>
@@ -7607,31 +7607,31 @@
         <v>6</v>
       </c>
       <c r="R95">
-        <v>37123</v>
+        <v>31582</v>
       </c>
       <c r="S95" t="s">
         <v>7</v>
       </c>
       <c r="T95">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U95">
         <f t="shared" si="1"/>
-        <v>4445</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4389</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>2</v>
       </c>
       <c r="B96">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="C96" t="s">
         <v>17</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E96" t="s">
         <v>3</v>
@@ -7643,25 +7643,25 @@
         <v>4</v>
       </c>
       <c r="H96">
-        <v>37124</v>
+        <v>33293</v>
       </c>
       <c r="I96" t="s">
         <v>5</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K96" t="s">
         <v>2</v>
       </c>
       <c r="L96">
-        <v>25</v>
+        <v>66</v>
       </c>
       <c r="M96" t="s">
         <v>17</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" t="s">
         <v>3</v>
@@ -7673,31 +7673,31 @@
         <v>6</v>
       </c>
       <c r="R96">
-        <v>37706</v>
+        <v>37690</v>
       </c>
       <c r="S96" t="s">
         <v>7</v>
       </c>
       <c r="T96">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U96">
         <f t="shared" si="1"/>
-        <v>582</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4397</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>2</v>
       </c>
       <c r="B97">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="C97" t="s">
         <v>17</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" t="s">
         <v>3</v>
@@ -7709,25 +7709,25 @@
         <v>4</v>
       </c>
       <c r="H97">
-        <v>39419</v>
+        <v>37691</v>
       </c>
       <c r="I97" t="s">
         <v>5</v>
       </c>
       <c r="J97">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K97" t="s">
         <v>2</v>
       </c>
       <c r="L97">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="M97" t="s">
         <v>17</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97" t="s">
         <v>3</v>
@@ -7739,25 +7739,25 @@
         <v>6</v>
       </c>
       <c r="R97">
-        <v>43809</v>
+        <v>42124</v>
       </c>
       <c r="S97" t="s">
         <v>7</v>
       </c>
       <c r="T97">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U97">
         <f t="shared" si="1"/>
-        <v>4390</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4433</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>2</v>
       </c>
       <c r="B98">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="C98" t="s">
         <v>17</v>
@@ -7775,7 +7775,7 @@
         <v>4</v>
       </c>
       <c r="H98">
-        <v>45534</v>
+        <v>43863</v>
       </c>
       <c r="I98" t="s">
         <v>5</v>
@@ -7787,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="L98">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="M98" t="s">
         <v>17</v>
@@ -7805,7 +7805,7 @@
         <v>6</v>
       </c>
       <c r="R98">
-        <v>49992</v>
+        <v>48290</v>
       </c>
       <c r="S98" t="s">
         <v>7</v>
@@ -7815,21 +7815,21 @@
       </c>
       <c r="U98">
         <f t="shared" si="1"/>
-        <v>4458</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>2</v>
       </c>
       <c r="B99">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="C99" t="s">
         <v>17</v>
       </c>
       <c r="D99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E99" t="s">
         <v>3</v>
@@ -7841,25 +7841,25 @@
         <v>4</v>
       </c>
       <c r="H99">
-        <v>49993</v>
+        <v>50017</v>
       </c>
       <c r="I99" t="s">
         <v>5</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K99" t="s">
         <v>2</v>
       </c>
       <c r="L99">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="M99" t="s">
         <v>17</v>
       </c>
       <c r="N99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O99" t="s">
         <v>3</v>
@@ -7871,20 +7871,20 @@
         <v>6</v>
       </c>
       <c r="R99">
-        <v>50567</v>
+        <v>54440</v>
       </c>
       <c r="S99" t="s">
         <v>7</v>
       </c>
       <c r="T99">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U99">
         <f t="shared" si="1"/>
-        <v>574</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4423</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -7912,25 +7912,25 @@
       <c r="R100" s="2"/>
       <c r="T100">
         <f>AVERAGE(T90:T99)</f>
-        <v>1637.6</v>
+        <v>1228.2</v>
       </c>
       <c r="U100" s="2">
         <f>AVERAGE(U90:U99)</f>
-        <v>3682.3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4409</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>2</v>
       </c>
       <c r="B101">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="C101" t="s">
         <v>17</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E101" t="s">
         <v>3</v>
@@ -7942,25 +7942,25 @@
         <v>4</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1718</v>
       </c>
       <c r="I101" t="s">
         <v>5</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K101" t="s">
         <v>2</v>
       </c>
       <c r="L101">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="M101" t="s">
         <v>17</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O101" t="s">
         <v>3</v>
@@ -7972,31 +7972,31 @@
         <v>6</v>
       </c>
       <c r="R101">
-        <v>677</v>
+        <v>6219</v>
       </c>
       <c r="S101" t="s">
         <v>7</v>
       </c>
       <c r="T101">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U101">
         <f t="shared" si="1"/>
-        <v>677</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4501</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>2</v>
       </c>
       <c r="B102">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
         <v>17</v>
       </c>
       <c r="D102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E102" t="s">
         <v>3</v>
@@ -8008,25 +8008,25 @@
         <v>4</v>
       </c>
       <c r="H102">
-        <v>2400</v>
+        <v>6220</v>
       </c>
       <c r="I102" t="s">
         <v>5</v>
       </c>
       <c r="J102">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K102" t="s">
         <v>2</v>
       </c>
       <c r="L102">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="M102" t="s">
         <v>17</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O102" t="s">
         <v>3</v>
@@ -8038,25 +8038,25 @@
         <v>6</v>
       </c>
       <c r="R102">
-        <v>7129</v>
+        <v>10734</v>
       </c>
       <c r="S102" t="s">
         <v>7</v>
       </c>
       <c r="T102">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U102">
         <f t="shared" si="1"/>
-        <v>4729</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4514</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>2</v>
       </c>
       <c r="B103">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="C103" t="s">
         <v>17</v>
@@ -8074,7 +8074,7 @@
         <v>4</v>
       </c>
       <c r="H103">
-        <v>8855</v>
+        <v>12451</v>
       </c>
       <c r="I103" t="s">
         <v>5</v>
@@ -8086,7 +8086,7 @@
         <v>2</v>
       </c>
       <c r="L103">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="M103" t="s">
         <v>17</v>
@@ -8104,7 +8104,7 @@
         <v>6</v>
       </c>
       <c r="R103">
-        <v>13352</v>
+        <v>17166</v>
       </c>
       <c r="S103" t="s">
         <v>7</v>
@@ -8114,15 +8114,15 @@
       </c>
       <c r="U103">
         <f t="shared" si="1"/>
-        <v>4497</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4715</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>2</v>
       </c>
       <c r="B104">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C104" t="s">
         <v>17</v>
@@ -8140,7 +8140,7 @@
         <v>4</v>
       </c>
       <c r="H104">
-        <v>13353</v>
+        <v>17167</v>
       </c>
       <c r="I104" t="s">
         <v>5</v>
@@ -8152,7 +8152,7 @@
         <v>2</v>
       </c>
       <c r="L104">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M104" t="s">
         <v>17</v>
@@ -8170,7 +8170,7 @@
         <v>6</v>
       </c>
       <c r="R104">
-        <v>14014</v>
+        <v>21804</v>
       </c>
       <c r="S104" t="s">
         <v>7</v>
@@ -8180,15 +8180,15 @@
       </c>
       <c r="U104">
         <f t="shared" si="1"/>
-        <v>661</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4637</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>2</v>
       </c>
       <c r="B105">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C105" t="s">
         <v>17</v>
@@ -8206,7 +8206,7 @@
         <v>4</v>
       </c>
       <c r="H105">
-        <v>15732</v>
+        <v>23522</v>
       </c>
       <c r="I105" t="s">
         <v>5</v>
@@ -8218,7 +8218,7 @@
         <v>2</v>
       </c>
       <c r="L105">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M105" t="s">
         <v>17</v>
@@ -8236,7 +8236,7 @@
         <v>6</v>
       </c>
       <c r="R105">
-        <v>20396</v>
+        <v>28037</v>
       </c>
       <c r="S105" t="s">
         <v>7</v>
@@ -8246,21 +8246,21 @@
       </c>
       <c r="U105">
         <f t="shared" si="1"/>
-        <v>4664</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4515</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>2</v>
       </c>
       <c r="B106">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="C106" t="s">
         <v>17</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E106" t="s">
         <v>3</v>
@@ -8272,25 +8272,25 @@
         <v>4</v>
       </c>
       <c r="H106">
-        <v>22133</v>
+        <v>28038</v>
       </c>
       <c r="I106" t="s">
         <v>5</v>
       </c>
       <c r="J106">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K106" t="s">
         <v>2</v>
       </c>
       <c r="L106">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M106" t="s">
         <v>17</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O106" t="s">
         <v>3</v>
@@ -8302,25 +8302,25 @@
         <v>6</v>
       </c>
       <c r="R106">
-        <v>26696</v>
+        <v>32517</v>
       </c>
       <c r="S106" t="s">
         <v>7</v>
       </c>
       <c r="T106">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U106">
         <f t="shared" si="1"/>
-        <v>4563</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4479</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>2</v>
       </c>
       <c r="B107">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C107" t="s">
         <v>17</v>
@@ -8338,7 +8338,7 @@
         <v>4</v>
       </c>
       <c r="H107">
-        <v>28418</v>
+        <v>34220</v>
       </c>
       <c r="I107" t="s">
         <v>5</v>
@@ -8350,7 +8350,7 @@
         <v>2</v>
       </c>
       <c r="L107">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="M107" t="s">
         <v>17</v>
@@ -8368,7 +8368,7 @@
         <v>6</v>
       </c>
       <c r="R107">
-        <v>32848</v>
+        <v>38728</v>
       </c>
       <c r="S107" t="s">
         <v>7</v>
@@ -8378,21 +8378,21 @@
       </c>
       <c r="U107">
         <f t="shared" si="1"/>
-        <v>4430</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4508</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>2</v>
       </c>
       <c r="B108">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C108" t="s">
         <v>17</v>
       </c>
       <c r="D108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E108" t="s">
         <v>3</v>
@@ -8404,25 +8404,25 @@
         <v>4</v>
       </c>
       <c r="H108">
-        <v>34580</v>
+        <v>38729</v>
       </c>
       <c r="I108" t="s">
         <v>5</v>
       </c>
       <c r="J108">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="K108" t="s">
         <v>2</v>
       </c>
       <c r="L108">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="M108" t="s">
         <v>17</v>
       </c>
       <c r="N108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108" t="s">
         <v>3</v>
@@ -8434,31 +8434,31 @@
         <v>6</v>
       </c>
       <c r="R108">
-        <v>39175</v>
+        <v>43222</v>
       </c>
       <c r="S108" t="s">
         <v>7</v>
       </c>
       <c r="T108">
-        <v>2047</v>
+        <v>0</v>
       </c>
       <c r="U108">
         <f t="shared" si="1"/>
-        <v>4595</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4493</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>2</v>
       </c>
       <c r="B109">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="C109" t="s">
         <v>17</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="s">
         <v>3</v>
@@ -8470,25 +8470,25 @@
         <v>4</v>
       </c>
       <c r="H109">
-        <v>39176</v>
+        <v>44939</v>
       </c>
       <c r="I109" t="s">
         <v>5</v>
       </c>
       <c r="J109">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="K109" t="s">
         <v>2</v>
       </c>
       <c r="L109">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="M109" t="s">
         <v>17</v>
       </c>
       <c r="N109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" t="s">
         <v>3</v>
@@ -8500,25 +8500,25 @@
         <v>6</v>
       </c>
       <c r="R109">
-        <v>39888</v>
+        <v>49406</v>
       </c>
       <c r="S109" t="s">
         <v>7</v>
       </c>
       <c r="T109">
-        <v>0</v>
+        <v>2047</v>
       </c>
       <c r="U109">
         <f t="shared" si="1"/>
-        <v>712</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>2</v>
       </c>
       <c r="B110">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="C110" t="s">
         <v>17</v>
@@ -8536,7 +8536,7 @@
         <v>4</v>
       </c>
       <c r="H110">
-        <v>41600</v>
+        <v>51136</v>
       </c>
       <c r="I110" t="s">
         <v>5</v>
@@ -8548,7 +8548,7 @@
         <v>2</v>
       </c>
       <c r="L110">
-        <v>34</v>
+        <v>99</v>
       </c>
       <c r="M110" t="s">
         <v>17</v>
@@ -8566,7 +8566,7 @@
         <v>6</v>
       </c>
       <c r="R110">
-        <v>46203</v>
+        <v>55563</v>
       </c>
       <c r="S110" t="s">
         <v>7</v>
@@ -8576,18 +8576,18 @@
       </c>
       <c r="U110">
         <f t="shared" si="1"/>
-        <v>4603</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.2">
+        <v>4427</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R111" s="2"/>
       <c r="T111">
         <f>AVERAGE(T101:T110)</f>
-        <v>1432.9</v>
+        <v>1228.2</v>
       </c>
       <c r="U111" s="2">
         <f>AVERAGE(U101:U110)</f>
-        <v>3413.1</v>
+        <v>4525.6000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -8601,19 +8601,19 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H11"/>
+      <selection activeCell="D2" sqref="D2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="14" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.08203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="16.125" customWidth="1"/>
+    <col min="8" max="8" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8636,322 +8636,322 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.05</v>
       </c>
       <c r="B2">
-        <v>4309</v>
+        <v>4295.3999999999996</v>
       </c>
       <c r="C2" s="1">
         <f>B2*50/1000000</f>
-        <v>0.21545</v>
+        <v>0.21476999999999996</v>
       </c>
       <c r="D2" s="1">
         <v>2047</v>
       </c>
       <c r="E2">
         <f>D2/C2</f>
-        <v>9501.0443258296582</v>
+        <v>9531.1263211808</v>
       </c>
       <c r="G2">
         <f>ROUND(C2,6)</f>
-        <v>0.21545</v>
+        <v>0.21476999999999999</v>
       </c>
       <c r="H2">
         <f>FLOOR(E2,1)</f>
-        <v>9501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9531</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0.1</v>
       </c>
       <c r="B3">
-        <v>4327.3</v>
+        <v>4325.2</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C11" si="0">B3*50/1000000</f>
-        <v>0.216365</v>
+        <v>0.21626000000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>2047</v>
+        <v>1842.3</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E11" si="1">D3/C3</f>
-        <v>9460.8647424491028</v>
+        <v>8518.9124202349012</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G11" si="2">ROUND(C3,6)</f>
-        <v>0.216365</v>
+        <v>0.21626000000000001</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H11" si="3">FLOOR(E3,1)</f>
-        <v>9460</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0.15</v>
       </c>
       <c r="B4">
-        <v>4320.8</v>
+        <v>4308.8</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>0.21604000000000001</v>
+        <v>0.21543999999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>2047</v>
+        <v>1842.3</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>9475.0972042214398</v>
+        <v>8551.3367991087998</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>0.21604000000000001</v>
+        <v>0.21543999999999999</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
-        <v>9475</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>8551</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0.2</v>
       </c>
       <c r="B5">
-        <v>3962.8</v>
+        <v>4335.3</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>0.19814000000000001</v>
+        <v>0.21676500000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>1842.3</v>
+        <v>1637.6</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>9297.9711315231652</v>
+        <v>7554.725163195164</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>0.19814000000000001</v>
+        <v>0.21676500000000001</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
-        <v>9297</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>0.25</v>
       </c>
       <c r="B6">
-        <v>4354.1000000000004</v>
+        <v>4343.5</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>0.21770500000000004</v>
+        <v>0.21717500000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>2047</v>
+        <v>1637.6</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>9402.6320020210824</v>
+        <v>7540.4627604466441</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>0.21770500000000001</v>
+        <v>0.21717500000000001</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
-        <v>9402</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>7540</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>0.3</v>
       </c>
       <c r="B7">
-        <v>3196.9</v>
+        <v>4330.2</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
-        <v>0.15984499999999999</v>
+        <v>0.21651000000000001</v>
       </c>
       <c r="D7" s="1">
         <v>1432.9</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>8964.3091745128113</v>
+        <v>6618.1700614290339</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>0.15984499999999999</v>
+        <v>0.21651000000000001</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
-        <v>8964</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>0.35</v>
       </c>
       <c r="B8">
-        <v>3628.5</v>
+        <v>4380.6000000000004</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
-        <v>0.181425</v>
+        <v>0.21903000000000003</v>
       </c>
       <c r="D8" s="1">
-        <v>1637.6</v>
+        <v>1432.9</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>9026.3194157365288</v>
+        <v>6542.0262064557364</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>0.181425</v>
+        <v>0.21903</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>9026</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>6542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.4</v>
       </c>
       <c r="B9">
-        <v>4020.9</v>
+        <v>4389.7</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
-        <v>0.201045</v>
+        <v>0.21948500000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>1842.3</v>
+        <v>1228.2</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>9163.6200850555852</v>
+        <v>5595.8265940724878</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>0.201045</v>
+        <v>0.21948500000000001</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
-        <v>9163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5595</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.45</v>
       </c>
       <c r="B10">
-        <v>3682.3</v>
+        <v>4409</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
-        <v>0.184115</v>
+        <v>0.22045000000000001</v>
       </c>
       <c r="D10" s="1">
-        <v>1637.6</v>
+        <v>1228.2</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>8894.4409743910055</v>
+        <v>5571.3313676570651</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>0.184115</v>
+        <v>0.22045000000000001</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
-        <v>8894</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5571</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.49</v>
       </c>
       <c r="B11">
-        <v>3413.1</v>
+        <v>4525.6000000000004</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
-        <v>0.170655</v>
+        <v>0.22628000000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>1432.9</v>
+        <v>1228.2</v>
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>8396.472415106502</v>
+        <v>5427.7885805197093</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>0.170655</v>
+        <v>0.22628000000000001</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
-        <v>8396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>5427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>0.21688000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>0.22201999999999997</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>0.2208</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>0.21825500000000003</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="1">
         <v>0.21959000000000001</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="1">
         <v>0.22290500000000002</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C21" s="1">
         <v>0.221715</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C22" s="1">
         <v>0.223135</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>0.22186999999999998</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>0.22478000000000004</v>
       </c>
@@ -8970,12 +8970,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>512</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>6602</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1024</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>6868</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1536</v>
       </c>
@@ -9019,7 +9019,7 @@
         <v>7041</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2048</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>7075</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2560</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>7113</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3072</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>7122</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3584</v>
       </c>
@@ -9063,7 +9063,7 @@
         <v>7106</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4096</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>7164</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4608</v>
       </c>
@@ -9085,7 +9085,7 @@
         <v>7174</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5120</v>
       </c>
